--- a/Agile_Template_v0.1.xlsx
+++ b/Agile_Template_v0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deeks\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d5455043db0f788e/Documents/Infosys Springboard/content-marketing-optimizer-final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82C6AD8-EC46-4692-99C7-67B5CFB23FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{B82C6AD8-EC46-4692-99C7-67B5CFB23FD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03830888-08C0-4A57-B41F-BD946B4BE4AB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
   <si>
     <t>Planned Sprint</t>
   </si>
@@ -409,9 +409,6 @@
   </si>
   <si>
     <t>Sentiment Analysis, Slack Integration and deployment</t>
-  </si>
-  <si>
-    <t>2- In Progress</t>
   </si>
   <si>
     <t>du</t>
@@ -1243,6 +1240,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1261,21 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1495,7 +1492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1597,7 +1596,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3051,9 +3050,9 @@
     <col min="24" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3081,147 +3080,147 @@
       <c r="Y1" s="19"/>
       <c r="Z1" s="19"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:26" ht="51" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="D2" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="E2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="F2" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="H2" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="20" t="s">
+      <c r="J2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="L2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="M2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="N2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="O2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="P2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="21" t="s">
+      <c r="Q2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="S2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="X2" s="22"/>
       <c r="Y2" s="22"/>
       <c r="Z2" s="22"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="62"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="23">
-        <f>SUM(I5:I712)</f>
+        <f t="shared" ref="I3:W3" si="0">SUM(I5:I712)</f>
         <v>0</v>
       </c>
       <c r="J3" s="23">
-        <f>SUM(J5:J712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K3" s="23">
-        <f>SUM(K5:K712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L3" s="23">
-        <f>SUM(L5:L712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="23">
-        <f>SUM(M5:M712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N3" s="23">
-        <f>SUM(N5:N712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O3" s="23">
-        <f>SUM(O5:O712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P3" s="23">
-        <f>SUM(P5:P712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q3" s="23">
-        <f>SUM(Q5:Q712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R3" s="23">
-        <f>SUM(R5:R712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S3" s="23">
-        <f>SUM(S5:S712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T3" s="23">
-        <f>SUM(T5:T712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U3" s="23">
-        <f>SUM(U5:U712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V3" s="23">
-        <f>SUM(V5:V712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W3" s="23">
-        <f>SUM(W5:W712)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X3" s="22"/>
@@ -3229,36 +3228,36 @@
       <c r="Z3" s="22"/>
     </row>
     <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="60"/>
       <c r="X4" s="22"/>
       <c r="Y4" s="22"/>
       <c r="Z4" s="22"/>
     </row>
-    <row r="5" spans="1:26" s="62" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="52" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>1</v>
       </c>
@@ -3267,68 +3266,68 @@
         <v>8</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="G5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="M5" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="N5" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="P5" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="Q5" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="R5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="S5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="28" t="s">
+      <c r="T5" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="T5" s="28" t="s">
+      <c r="U5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="28" t="s">
+      <c r="V5" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="W5" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="61"/>
-    </row>
-    <row r="6" spans="1:26" s="62" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+    </row>
+    <row r="6" spans="1:26" s="52" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
@@ -3337,212 +3336,212 @@
         <v>10</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>59</v>
-      </c>
       <c r="H6" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="L6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="M6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="N6" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="O6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="P6" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="28" t="s">
+      <c r="Q6" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="R6" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="R6" s="28" t="s">
+      <c r="S6" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="T6" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="T6" s="28" t="s">
+      <c r="U6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="U6" s="28" t="s">
+      <c r="V6" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="V6" s="28" t="s">
+      <c r="W6" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="W6" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-    </row>
-    <row r="7" spans="1:26" s="62" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+    </row>
+    <row r="7" spans="1:26" s="52" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" s="24"/>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>81</v>
-      </c>
       <c r="H7" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="L7" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="M7" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="M7" s="28" t="s">
+      <c r="N7" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="O7" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="O7" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" s="28" t="s">
+      <c r="Q7" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="28" t="s">
+      <c r="R7" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="R7" s="28" t="s">
+      <c r="S7" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="S7" s="28" t="s">
+      <c r="T7" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="T7" s="31" t="s">
+      <c r="U7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="V7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="W7" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="U7" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="V7" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="W7" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-    </row>
-    <row r="8" spans="1:26" s="62" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+    </row>
+    <row r="8" spans="1:26" s="52" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>4</v>
       </c>
       <c r="B8" s="24"/>
-      <c r="C8" s="65" t="s">
-        <v>120</v>
+      <c r="C8" s="55" t="s">
+        <v>119</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="L8" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="M8" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="N8" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="O8" s="28" t="s">
+      <c r="P8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="28" t="s">
+      <c r="Q8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="Q8" s="28" t="s">
+      <c r="R8" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="R8" s="28" t="s">
+      <c r="S8" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="S8" s="28" t="s">
+      <c r="T8" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="T8" s="31" t="s">
+      <c r="U8" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="U8" s="28" t="s">
+      <c r="V8" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="V8" s="28" t="s">
+      <c r="W8" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="W8" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="61"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34"/>
       <c r="B9" s="24"/>
       <c r="C9" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
@@ -3568,7 +3567,7 @@
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="36"/>
       <c r="C10" s="37"/>
@@ -3596,7 +3595,7 @@
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="36"/>
       <c r="C11" s="37"/>
@@ -3624,7 +3623,7 @@
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="36"/>
       <c r="C12" s="37"/>
@@ -3652,7 +3651,7 @@
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="36"/>
       <c r="C13" s="37"/>
@@ -3680,7 +3679,7 @@
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="36"/>
       <c r="C14" s="37"/>
@@ -3708,7 +3707,7 @@
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37"/>
@@ -3736,7 +3735,7 @@
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16" s="36"/>
       <c r="C16" s="37"/>
@@ -3764,7 +3763,7 @@
       <c r="Y16" s="19"/>
       <c r="Z16" s="19"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="36"/>
       <c r="C17" s="37"/>
@@ -3792,7 +3791,7 @@
       <c r="Y17" s="19"/>
       <c r="Z17" s="19"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="36"/>
       <c r="C18" s="37"/>
@@ -3820,7 +3819,7 @@
       <c r="Y18" s="19"/>
       <c r="Z18" s="19"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="36"/>
       <c r="C19" s="37"/>
@@ -3848,7 +3847,7 @@
       <c r="Y19" s="19"/>
       <c r="Z19" s="19"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="36"/>
       <c r="C20" s="37"/>
@@ -3876,7 +3875,7 @@
       <c r="Y20" s="19"/>
       <c r="Z20" s="19"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="36"/>
       <c r="C21" s="37"/>
@@ -3904,7 +3903,7 @@
       <c r="Y21" s="19"/>
       <c r="Z21" s="19"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="36"/>
       <c r="C22" s="37"/>
@@ -3932,7 +3931,7 @@
       <c r="Y22" s="19"/>
       <c r="Z22" s="19"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="36"/>
       <c r="C23" s="37"/>
@@ -3960,7 +3959,7 @@
       <c r="Y23" s="19"/>
       <c r="Z23" s="19"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37"/>
@@ -3988,7 +3987,7 @@
       <c r="Y24" s="19"/>
       <c r="Z24" s="19"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37"/>
@@ -4016,7 +4015,7 @@
       <c r="Y25" s="19"/>
       <c r="Z25" s="19"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="19"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37"/>
@@ -4044,7 +4043,7 @@
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37"/>
@@ -4072,7 +4071,7 @@
       <c r="Y27" s="19"/>
       <c r="Z27" s="19"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="36"/>
       <c r="C28" s="37"/>
@@ -4100,7 +4099,7 @@
       <c r="Y28" s="19"/>
       <c r="Z28" s="19"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="36"/>
       <c r="C29" s="37"/>
@@ -4128,7 +4127,7 @@
       <c r="Y29" s="19"/>
       <c r="Z29" s="19"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="19"/>
       <c r="B30" s="36"/>
       <c r="C30" s="37"/>
@@ -4156,7 +4155,7 @@
       <c r="Y30" s="19"/>
       <c r="Z30" s="19"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37"/>
@@ -4184,7 +4183,7 @@
       <c r="Y31" s="19"/>
       <c r="Z31" s="19"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="19"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37"/>
@@ -4212,7 +4211,7 @@
       <c r="Y32" s="19"/>
       <c r="Z32" s="19"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="19"/>
       <c r="B33" s="36"/>
       <c r="C33" s="37"/>
@@ -4240,7 +4239,7 @@
       <c r="Y33" s="19"/>
       <c r="Z33" s="19"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="36"/>
       <c r="C34" s="37"/>
@@ -4268,7 +4267,7 @@
       <c r="Y34" s="19"/>
       <c r="Z34" s="19"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="36"/>
       <c r="C35" s="37"/>
@@ -4296,7 +4295,7 @@
       <c r="Y35" s="19"/>
       <c r="Z35" s="19"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="19"/>
       <c r="B36" s="36"/>
       <c r="C36" s="37"/>
@@ -4324,7 +4323,7 @@
       <c r="Y36" s="19"/>
       <c r="Z36" s="19"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="36"/>
       <c r="C37" s="37"/>
@@ -4352,7 +4351,7 @@
       <c r="Y37" s="19"/>
       <c r="Z37" s="19"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="19"/>
       <c r="B38" s="36"/>
       <c r="C38" s="37"/>
@@ -4380,7 +4379,7 @@
       <c r="Y38" s="19"/>
       <c r="Z38" s="19"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="19"/>
       <c r="B39" s="36"/>
       <c r="C39" s="37"/>
@@ -4408,7 +4407,7 @@
       <c r="Y39" s="19"/>
       <c r="Z39" s="19"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="36"/>
       <c r="C40" s="37"/>
@@ -4436,7 +4435,7 @@
       <c r="Y40" s="19"/>
       <c r="Z40" s="19"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="36"/>
       <c r="C41" s="37"/>
@@ -4464,7 +4463,7 @@
       <c r="Y41" s="19"/>
       <c r="Z41" s="19"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="19"/>
       <c r="B42" s="36"/>
       <c r="C42" s="37"/>
@@ -4492,7 +4491,7 @@
       <c r="Y42" s="19"/>
       <c r="Z42" s="19"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="36"/>
       <c r="C43" s="37"/>
@@ -4520,7 +4519,7 @@
       <c r="Y43" s="19"/>
       <c r="Z43" s="19"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="36"/>
       <c r="C44" s="37"/>
@@ -4548,7 +4547,7 @@
       <c r="Y44" s="19"/>
       <c r="Z44" s="19"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="19"/>
       <c r="B45" s="36"/>
       <c r="C45" s="37"/>
@@ -4576,7 +4575,7 @@
       <c r="Y45" s="19"/>
       <c r="Z45" s="19"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="19"/>
       <c r="B46" s="36"/>
       <c r="C46" s="37"/>
@@ -4604,7 +4603,7 @@
       <c r="Y46" s="19"/>
       <c r="Z46" s="19"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="36"/>
       <c r="C47" s="37"/>
@@ -4632,7 +4631,7 @@
       <c r="Y47" s="19"/>
       <c r="Z47" s="19"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="36"/>
       <c r="C48" s="37"/>
@@ -4660,7 +4659,7 @@
       <c r="Y48" s="19"/>
       <c r="Z48" s="19"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="36"/>
       <c r="C49" s="37"/>
@@ -4688,7 +4687,7 @@
       <c r="Y49" s="19"/>
       <c r="Z49" s="19"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="36"/>
       <c r="C50" s="37"/>
@@ -4716,7 +4715,7 @@
       <c r="Y50" s="19"/>
       <c r="Z50" s="19"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="36"/>
       <c r="C51" s="37"/>
@@ -4744,7 +4743,7 @@
       <c r="Y51" s="19"/>
       <c r="Z51" s="19"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="19"/>
       <c r="B52" s="36"/>
       <c r="C52" s="37"/>
@@ -4772,7 +4771,7 @@
       <c r="Y52" s="19"/>
       <c r="Z52" s="19"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="36"/>
       <c r="C53" s="37"/>
@@ -4800,7 +4799,7 @@
       <c r="Y53" s="19"/>
       <c r="Z53" s="19"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="19"/>
       <c r="B54" s="36"/>
       <c r="C54" s="37"/>
@@ -4828,7 +4827,7 @@
       <c r="Y54" s="19"/>
       <c r="Z54" s="19"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="19"/>
       <c r="B55" s="36"/>
       <c r="C55" s="37"/>
@@ -4856,7 +4855,7 @@
       <c r="Y55" s="19"/>
       <c r="Z55" s="19"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="19"/>
       <c r="B56" s="36"/>
       <c r="C56" s="37"/>
@@ -4884,7 +4883,7 @@
       <c r="Y56" s="19"/>
       <c r="Z56" s="19"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="19"/>
       <c r="B57" s="36"/>
       <c r="C57" s="37"/>
@@ -4912,7 +4911,7 @@
       <c r="Y57" s="19"/>
       <c r="Z57" s="19"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="19"/>
       <c r="B58" s="36"/>
       <c r="C58" s="37"/>
@@ -4940,7 +4939,7 @@
       <c r="Y58" s="19"/>
       <c r="Z58" s="19"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="19"/>
       <c r="B59" s="36"/>
       <c r="C59" s="37"/>
@@ -4968,7 +4967,7 @@
       <c r="Y59" s="19"/>
       <c r="Z59" s="19"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="19"/>
       <c r="B60" s="36"/>
       <c r="C60" s="37"/>
@@ -4996,7 +4995,7 @@
       <c r="Y60" s="19"/>
       <c r="Z60" s="19"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="19"/>
       <c r="B61" s="36"/>
       <c r="C61" s="37"/>
@@ -5024,7 +5023,7 @@
       <c r="Y61" s="19"/>
       <c r="Z61" s="19"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="19"/>
       <c r="B62" s="36"/>
       <c r="C62" s="37"/>
@@ -5052,7 +5051,7 @@
       <c r="Y62" s="19"/>
       <c r="Z62" s="19"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="19"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37"/>
@@ -5080,7 +5079,7 @@
       <c r="Y63" s="19"/>
       <c r="Z63" s="19"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="19"/>
       <c r="B64" s="36"/>
       <c r="C64" s="37"/>
@@ -5108,7 +5107,7 @@
       <c r="Y64" s="19"/>
       <c r="Z64" s="19"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="19"/>
       <c r="B65" s="36"/>
       <c r="C65" s="37"/>
@@ -5136,7 +5135,7 @@
       <c r="Y65" s="19"/>
       <c r="Z65" s="19"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="19"/>
       <c r="B66" s="36"/>
       <c r="C66" s="37"/>
@@ -5164,7 +5163,7 @@
       <c r="Y66" s="19"/>
       <c r="Z66" s="19"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="19"/>
       <c r="B67" s="36"/>
       <c r="C67" s="37"/>
@@ -5192,7 +5191,7 @@
       <c r="Y67" s="19"/>
       <c r="Z67" s="19"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="36"/>
       <c r="C68" s="37"/>
@@ -5220,7 +5219,7 @@
       <c r="Y68" s="19"/>
       <c r="Z68" s="19"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="36"/>
       <c r="C69" s="37"/>
@@ -5248,7 +5247,7 @@
       <c r="Y69" s="19"/>
       <c r="Z69" s="19"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="36"/>
       <c r="C70" s="37"/>
@@ -5276,7 +5275,7 @@
       <c r="Y70" s="19"/>
       <c r="Z70" s="19"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="36"/>
       <c r="C71" s="37"/>
@@ -5304,7 +5303,7 @@
       <c r="Y71" s="19"/>
       <c r="Z71" s="19"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="36"/>
       <c r="C72" s="37"/>
@@ -5332,7 +5331,7 @@
       <c r="Y72" s="19"/>
       <c r="Z72" s="19"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="36"/>
       <c r="C73" s="37"/>
@@ -5360,7 +5359,7 @@
       <c r="Y73" s="19"/>
       <c r="Z73" s="19"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="36"/>
       <c r="C74" s="37"/>
@@ -5388,7 +5387,7 @@
       <c r="Y74" s="19"/>
       <c r="Z74" s="19"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="36"/>
       <c r="C75" s="37"/>
@@ -5416,7 +5415,7 @@
       <c r="Y75" s="19"/>
       <c r="Z75" s="19"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="36"/>
       <c r="C76" s="37"/>
@@ -5444,7 +5443,7 @@
       <c r="Y76" s="19"/>
       <c r="Z76" s="19"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="36"/>
       <c r="C77" s="37"/>
@@ -5472,7 +5471,7 @@
       <c r="Y77" s="19"/>
       <c r="Z77" s="19"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="36"/>
       <c r="C78" s="37"/>
@@ -5500,7 +5499,7 @@
       <c r="Y78" s="19"/>
       <c r="Z78" s="19"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="36"/>
       <c r="C79" s="37"/>
@@ -5528,7 +5527,7 @@
       <c r="Y79" s="19"/>
       <c r="Z79" s="19"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="36"/>
       <c r="C80" s="37"/>
@@ -5556,7 +5555,7 @@
       <c r="Y80" s="19"/>
       <c r="Z80" s="19"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="36"/>
       <c r="C81" s="37"/>
@@ -5584,7 +5583,7 @@
       <c r="Y81" s="19"/>
       <c r="Z81" s="19"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="36"/>
       <c r="C82" s="37"/>
@@ -5612,7 +5611,7 @@
       <c r="Y82" s="19"/>
       <c r="Z82" s="19"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="19"/>
       <c r="B83" s="36"/>
       <c r="C83" s="37"/>
@@ -5640,7 +5639,7 @@
       <c r="Y83" s="19"/>
       <c r="Z83" s="19"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="19"/>
       <c r="B84" s="36"/>
       <c r="C84" s="37"/>
@@ -5668,7 +5667,7 @@
       <c r="Y84" s="19"/>
       <c r="Z84" s="19"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="19"/>
       <c r="B85" s="36"/>
       <c r="C85" s="37"/>
@@ -5696,7 +5695,7 @@
       <c r="Y85" s="19"/>
       <c r="Z85" s="19"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="19"/>
       <c r="B86" s="36"/>
       <c r="C86" s="37"/>
@@ -5724,7 +5723,7 @@
       <c r="Y86" s="19"/>
       <c r="Z86" s="19"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="19"/>
       <c r="B87" s="36"/>
       <c r="C87" s="37"/>
@@ -5752,7 +5751,7 @@
       <c r="Y87" s="19"/>
       <c r="Z87" s="19"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="19"/>
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
@@ -5780,7 +5779,7 @@
       <c r="Y88" s="19"/>
       <c r="Z88" s="19"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="19"/>
       <c r="B89" s="36"/>
       <c r="C89" s="37"/>
@@ -5808,7 +5807,7 @@
       <c r="Y89" s="19"/>
       <c r="Z89" s="19"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="19"/>
       <c r="B90" s="36"/>
       <c r="C90" s="37"/>
@@ -5836,7 +5835,7 @@
       <c r="Y90" s="19"/>
       <c r="Z90" s="19"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="36"/>
       <c r="C91" s="37"/>
@@ -5864,7 +5863,7 @@
       <c r="Y91" s="19"/>
       <c r="Z91" s="19"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="19"/>
       <c r="B92" s="36"/>
       <c r="C92" s="37"/>
@@ -5892,7 +5891,7 @@
       <c r="Y92" s="19"/>
       <c r="Z92" s="19"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="36"/>
       <c r="C93" s="37"/>
@@ -5920,7 +5919,7 @@
       <c r="Y93" s="19"/>
       <c r="Z93" s="19"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="36"/>
       <c r="C94" s="37"/>
@@ -5948,7 +5947,7 @@
       <c r="Y94" s="19"/>
       <c r="Z94" s="19"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="19"/>
       <c r="B95" s="36"/>
       <c r="C95" s="37"/>
@@ -5976,7 +5975,7 @@
       <c r="Y95" s="19"/>
       <c r="Z95" s="19"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="19"/>
       <c r="B96" s="36"/>
       <c r="C96" s="37"/>
@@ -6004,7 +6003,7 @@
       <c r="Y96" s="19"/>
       <c r="Z96" s="19"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="19"/>
       <c r="B97" s="36"/>
       <c r="C97" s="37"/>
@@ -6032,7 +6031,7 @@
       <c r="Y97" s="19"/>
       <c r="Z97" s="19"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="19"/>
       <c r="B98" s="36"/>
       <c r="C98" s="37"/>
@@ -6060,7 +6059,7 @@
       <c r="Y98" s="19"/>
       <c r="Z98" s="19"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="36"/>
       <c r="C99" s="37"/>
@@ -6088,7 +6087,7 @@
       <c r="Y99" s="19"/>
       <c r="Z99" s="19"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="36"/>
       <c r="C100" s="37"/>
@@ -6116,7 +6115,7 @@
       <c r="Y100" s="19"/>
       <c r="Z100" s="19"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="19"/>
       <c r="B101" s="36"/>
       <c r="C101" s="37"/>
@@ -6144,7 +6143,7 @@
       <c r="Y101" s="19"/>
       <c r="Z101" s="19"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="19"/>
       <c r="B102" s="36"/>
       <c r="C102" s="37"/>
@@ -6172,7 +6171,7 @@
       <c r="Y102" s="19"/>
       <c r="Z102" s="19"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="19"/>
       <c r="B103" s="36"/>
       <c r="C103" s="37"/>
@@ -6200,7 +6199,7 @@
       <c r="Y103" s="19"/>
       <c r="Z103" s="19"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="19"/>
       <c r="B104" s="36"/>
       <c r="C104" s="37"/>
@@ -6228,7 +6227,7 @@
       <c r="Y104" s="19"/>
       <c r="Z104" s="19"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="19"/>
       <c r="B105" s="36"/>
       <c r="C105" s="37"/>
@@ -6256,7 +6255,7 @@
       <c r="Y105" s="19"/>
       <c r="Z105" s="19"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="36"/>
       <c r="C106" s="37"/>
@@ -6284,7 +6283,7 @@
       <c r="Y106" s="19"/>
       <c r="Z106" s="19"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="19"/>
       <c r="B107" s="36"/>
       <c r="C107" s="37"/>
@@ -6312,7 +6311,7 @@
       <c r="Y107" s="19"/>
       <c r="Z107" s="19"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="19"/>
       <c r="B108" s="36"/>
       <c r="C108" s="37"/>
@@ -6340,7 +6339,7 @@
       <c r="Y108" s="19"/>
       <c r="Z108" s="19"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
       <c r="B109" s="36"/>
       <c r="C109" s="37"/>
@@ -6368,7 +6367,7 @@
       <c r="Y109" s="19"/>
       <c r="Z109" s="19"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="19"/>
       <c r="B110" s="36"/>
       <c r="C110" s="37"/>
@@ -6396,7 +6395,7 @@
       <c r="Y110" s="19"/>
       <c r="Z110" s="19"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="19"/>
       <c r="B111" s="36"/>
       <c r="C111" s="37"/>
@@ -6424,7 +6423,7 @@
       <c r="Y111" s="19"/>
       <c r="Z111" s="19"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="19"/>
       <c r="B112" s="36"/>
       <c r="C112" s="37"/>
@@ -6452,7 +6451,7 @@
       <c r="Y112" s="19"/>
       <c r="Z112" s="19"/>
     </row>
-    <row r="113" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="19"/>
       <c r="B113" s="36"/>
       <c r="C113" s="37"/>
@@ -6480,7 +6479,7 @@
       <c r="Y113" s="19"/>
       <c r="Z113" s="19"/>
     </row>
-    <row r="114" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="19"/>
       <c r="B114" s="36"/>
       <c r="C114" s="37"/>
@@ -6508,7 +6507,7 @@
       <c r="Y114" s="19"/>
       <c r="Z114" s="19"/>
     </row>
-    <row r="115" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="19"/>
       <c r="B115" s="36"/>
       <c r="C115" s="37"/>
@@ -6536,7 +6535,7 @@
       <c r="Y115" s="19"/>
       <c r="Z115" s="19"/>
     </row>
-    <row r="116" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="19"/>
       <c r="B116" s="36"/>
       <c r="C116" s="37"/>
@@ -6564,7 +6563,7 @@
       <c r="Y116" s="19"/>
       <c r="Z116" s="19"/>
     </row>
-    <row r="117" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="19"/>
       <c r="B117" s="36"/>
       <c r="C117" s="37"/>
@@ -6592,7 +6591,7 @@
       <c r="Y117" s="19"/>
       <c r="Z117" s="19"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="19"/>
       <c r="B118" s="36"/>
       <c r="C118" s="37"/>
@@ -6620,7 +6619,7 @@
       <c r="Y118" s="19"/>
       <c r="Z118" s="19"/>
     </row>
-    <row r="119" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="19"/>
       <c r="B119" s="36"/>
       <c r="C119" s="37"/>
@@ -6648,7 +6647,7 @@
       <c r="Y119" s="19"/>
       <c r="Z119" s="19"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="19"/>
       <c r="B120" s="36"/>
       <c r="C120" s="37"/>
@@ -6676,7 +6675,7 @@
       <c r="Y120" s="19"/>
       <c r="Z120" s="19"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="19"/>
       <c r="B121" s="36"/>
       <c r="C121" s="37"/>
@@ -6704,7 +6703,7 @@
       <c r="Y121" s="19"/>
       <c r="Z121" s="19"/>
     </row>
-    <row r="122" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="19"/>
       <c r="B122" s="36"/>
       <c r="C122" s="37"/>
@@ -6732,7 +6731,7 @@
       <c r="Y122" s="19"/>
       <c r="Z122" s="19"/>
     </row>
-    <row r="123" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="19"/>
       <c r="B123" s="36"/>
       <c r="C123" s="37"/>
@@ -6760,7 +6759,7 @@
       <c r="Y123" s="19"/>
       <c r="Z123" s="19"/>
     </row>
-    <row r="124" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="19"/>
       <c r="B124" s="36"/>
       <c r="C124" s="37"/>
@@ -6788,7 +6787,7 @@
       <c r="Y124" s="19"/>
       <c r="Z124" s="19"/>
     </row>
-    <row r="125" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="19"/>
       <c r="B125" s="36"/>
       <c r="C125" s="37"/>
@@ -6816,7 +6815,7 @@
       <c r="Y125" s="19"/>
       <c r="Z125" s="19"/>
     </row>
-    <row r="126" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="19"/>
       <c r="B126" s="36"/>
       <c r="C126" s="37"/>
@@ -6844,7 +6843,7 @@
       <c r="Y126" s="19"/>
       <c r="Z126" s="19"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="19"/>
       <c r="B127" s="36"/>
       <c r="C127" s="37"/>
@@ -6872,7 +6871,7 @@
       <c r="Y127" s="19"/>
       <c r="Z127" s="19"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="19"/>
       <c r="B128" s="36"/>
       <c r="C128" s="37"/>
@@ -6900,7 +6899,7 @@
       <c r="Y128" s="19"/>
       <c r="Z128" s="19"/>
     </row>
-    <row r="129" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="19"/>
       <c r="B129" s="36"/>
       <c r="C129" s="37"/>
@@ -6928,7 +6927,7 @@
       <c r="Y129" s="19"/>
       <c r="Z129" s="19"/>
     </row>
-    <row r="130" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="19"/>
       <c r="B130" s="36"/>
       <c r="C130" s="37"/>
@@ -6956,7 +6955,7 @@
       <c r="Y130" s="19"/>
       <c r="Z130" s="19"/>
     </row>
-    <row r="131" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="19"/>
       <c r="B131" s="36"/>
       <c r="C131" s="37"/>
@@ -6984,7 +6983,7 @@
       <c r="Y131" s="19"/>
       <c r="Z131" s="19"/>
     </row>
-    <row r="132" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="19"/>
       <c r="B132" s="36"/>
       <c r="C132" s="37"/>
@@ -7012,7 +7011,7 @@
       <c r="Y132" s="19"/>
       <c r="Z132" s="19"/>
     </row>
-    <row r="133" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="19"/>
       <c r="B133" s="36"/>
       <c r="C133" s="37"/>
@@ -7040,7 +7039,7 @@
       <c r="Y133" s="19"/>
       <c r="Z133" s="19"/>
     </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="19"/>
       <c r="B134" s="36"/>
       <c r="C134" s="37"/>
@@ -7068,7 +7067,7 @@
       <c r="Y134" s="19"/>
       <c r="Z134" s="19"/>
     </row>
-    <row r="135" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="19"/>
       <c r="B135" s="36"/>
       <c r="C135" s="37"/>
@@ -7096,7 +7095,7 @@
       <c r="Y135" s="19"/>
       <c r="Z135" s="19"/>
     </row>
-    <row r="136" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="19"/>
       <c r="B136" s="36"/>
       <c r="C136" s="37"/>
@@ -7124,7 +7123,7 @@
       <c r="Y136" s="19"/>
       <c r="Z136" s="19"/>
     </row>
-    <row r="137" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="19"/>
       <c r="B137" s="36"/>
       <c r="C137" s="37"/>
@@ -7152,7 +7151,7 @@
       <c r="Y137" s="19"/>
       <c r="Z137" s="19"/>
     </row>
-    <row r="138" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="19"/>
       <c r="B138" s="36"/>
       <c r="C138" s="37"/>
@@ -7180,7 +7179,7 @@
       <c r="Y138" s="19"/>
       <c r="Z138" s="19"/>
     </row>
-    <row r="139" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="19"/>
       <c r="B139" s="36"/>
       <c r="C139" s="37"/>
@@ -7208,7 +7207,7 @@
       <c r="Y139" s="19"/>
       <c r="Z139" s="19"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="19"/>
       <c r="B140" s="36"/>
       <c r="C140" s="37"/>
@@ -7236,7 +7235,7 @@
       <c r="Y140" s="19"/>
       <c r="Z140" s="19"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="19"/>
       <c r="B141" s="36"/>
       <c r="C141" s="37"/>
@@ -7264,7 +7263,7 @@
       <c r="Y141" s="19"/>
       <c r="Z141" s="19"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="19"/>
       <c r="B142" s="36"/>
       <c r="C142" s="37"/>
@@ -7292,7 +7291,7 @@
       <c r="Y142" s="19"/>
       <c r="Z142" s="19"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="19"/>
       <c r="B143" s="36"/>
       <c r="C143" s="37"/>
@@ -7320,7 +7319,7 @@
       <c r="Y143" s="19"/>
       <c r="Z143" s="19"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="19"/>
       <c r="B144" s="36"/>
       <c r="C144" s="37"/>
@@ -7348,7 +7347,7 @@
       <c r="Y144" s="19"/>
       <c r="Z144" s="19"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="19"/>
       <c r="B145" s="36"/>
       <c r="C145" s="37"/>
@@ -7376,7 +7375,7 @@
       <c r="Y145" s="19"/>
       <c r="Z145" s="19"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="19"/>
       <c r="B146" s="36"/>
       <c r="C146" s="37"/>
@@ -7404,7 +7403,7 @@
       <c r="Y146" s="19"/>
       <c r="Z146" s="19"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="19"/>
       <c r="B147" s="36"/>
       <c r="C147" s="37"/>
@@ -7432,7 +7431,7 @@
       <c r="Y147" s="19"/>
       <c r="Z147" s="19"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="19"/>
       <c r="B148" s="36"/>
       <c r="C148" s="37"/>
@@ -7460,7 +7459,7 @@
       <c r="Y148" s="19"/>
       <c r="Z148" s="19"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="19"/>
       <c r="B149" s="36"/>
       <c r="C149" s="37"/>
@@ -7488,7 +7487,7 @@
       <c r="Y149" s="19"/>
       <c r="Z149" s="19"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="19"/>
       <c r="B150" s="36"/>
       <c r="C150" s="37"/>
@@ -7516,7 +7515,7 @@
       <c r="Y150" s="19"/>
       <c r="Z150" s="19"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="19"/>
       <c r="B151" s="36"/>
       <c r="C151" s="37"/>
@@ -7544,7 +7543,7 @@
       <c r="Y151" s="19"/>
       <c r="Z151" s="19"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="19"/>
       <c r="B152" s="36"/>
       <c r="C152" s="37"/>
@@ -7572,7 +7571,7 @@
       <c r="Y152" s="19"/>
       <c r="Z152" s="19"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="19"/>
       <c r="B153" s="36"/>
       <c r="C153" s="37"/>
@@ -7600,7 +7599,7 @@
       <c r="Y153" s="19"/>
       <c r="Z153" s="19"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="19"/>
       <c r="B154" s="36"/>
       <c r="C154" s="37"/>
@@ -7628,7 +7627,7 @@
       <c r="Y154" s="19"/>
       <c r="Z154" s="19"/>
     </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="19"/>
       <c r="B155" s="36"/>
       <c r="C155" s="37"/>
@@ -7656,7 +7655,7 @@
       <c r="Y155" s="19"/>
       <c r="Z155" s="19"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="19"/>
       <c r="B156" s="36"/>
       <c r="C156" s="37"/>
@@ -7684,7 +7683,7 @@
       <c r="Y156" s="19"/>
       <c r="Z156" s="19"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="19"/>
       <c r="B157" s="36"/>
       <c r="C157" s="37"/>
@@ -7712,7 +7711,7 @@
       <c r="Y157" s="19"/>
       <c r="Z157" s="19"/>
     </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="19"/>
       <c r="B158" s="36"/>
       <c r="C158" s="37"/>
@@ -7740,7 +7739,7 @@
       <c r="Y158" s="19"/>
       <c r="Z158" s="19"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="19"/>
       <c r="B159" s="36"/>
       <c r="C159" s="37"/>
@@ -7768,7 +7767,7 @@
       <c r="Y159" s="19"/>
       <c r="Z159" s="19"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="19"/>
       <c r="B160" s="36"/>
       <c r="C160" s="37"/>
@@ -7796,7 +7795,7 @@
       <c r="Y160" s="19"/>
       <c r="Z160" s="19"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="19"/>
       <c r="B161" s="36"/>
       <c r="C161" s="37"/>
@@ -7824,7 +7823,7 @@
       <c r="Y161" s="19"/>
       <c r="Z161" s="19"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="19"/>
       <c r="B162" s="36"/>
       <c r="C162" s="37"/>
@@ -7852,7 +7851,7 @@
       <c r="Y162" s="19"/>
       <c r="Z162" s="19"/>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="19"/>
       <c r="B163" s="36"/>
       <c r="C163" s="37"/>
@@ -7880,7 +7879,7 @@
       <c r="Y163" s="19"/>
       <c r="Z163" s="19"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="19"/>
       <c r="B164" s="36"/>
       <c r="C164" s="37"/>
@@ -7908,7 +7907,7 @@
       <c r="Y164" s="19"/>
       <c r="Z164" s="19"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="19"/>
       <c r="B165" s="36"/>
       <c r="C165" s="37"/>
@@ -7936,7 +7935,7 @@
       <c r="Y165" s="19"/>
       <c r="Z165" s="19"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="19"/>
       <c r="B166" s="36"/>
       <c r="C166" s="37"/>
@@ -7964,7 +7963,7 @@
       <c r="Y166" s="19"/>
       <c r="Z166" s="19"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="19"/>
       <c r="B167" s="36"/>
       <c r="C167" s="37"/>
@@ -7992,7 +7991,7 @@
       <c r="Y167" s="19"/>
       <c r="Z167" s="19"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="19"/>
       <c r="B168" s="36"/>
       <c r="C168" s="37"/>
@@ -8020,7 +8019,7 @@
       <c r="Y168" s="19"/>
       <c r="Z168" s="19"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="19"/>
       <c r="B169" s="36"/>
       <c r="C169" s="37"/>
@@ -8048,7 +8047,7 @@
       <c r="Y169" s="19"/>
       <c r="Z169" s="19"/>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="19"/>
       <c r="B170" s="36"/>
       <c r="C170" s="37"/>
@@ -8076,7 +8075,7 @@
       <c r="Y170" s="19"/>
       <c r="Z170" s="19"/>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="19"/>
       <c r="B171" s="36"/>
       <c r="C171" s="37"/>
@@ -8104,7 +8103,7 @@
       <c r="Y171" s="19"/>
       <c r="Z171" s="19"/>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="19"/>
       <c r="B172" s="36"/>
       <c r="C172" s="37"/>
@@ -8132,7 +8131,7 @@
       <c r="Y172" s="19"/>
       <c r="Z172" s="19"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="19"/>
       <c r="B173" s="36"/>
       <c r="C173" s="37"/>
@@ -8160,7 +8159,7 @@
       <c r="Y173" s="19"/>
       <c r="Z173" s="19"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="19"/>
       <c r="B174" s="36"/>
       <c r="C174" s="37"/>
@@ -8188,7 +8187,7 @@
       <c r="Y174" s="19"/>
       <c r="Z174" s="19"/>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="19"/>
       <c r="B175" s="36"/>
       <c r="C175" s="37"/>
@@ -8216,7 +8215,7 @@
       <c r="Y175" s="19"/>
       <c r="Z175" s="19"/>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="19"/>
       <c r="B176" s="36"/>
       <c r="C176" s="37"/>
@@ -8244,7 +8243,7 @@
       <c r="Y176" s="19"/>
       <c r="Z176" s="19"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="19"/>
       <c r="B177" s="36"/>
       <c r="C177" s="37"/>
@@ -8272,7 +8271,7 @@
       <c r="Y177" s="19"/>
       <c r="Z177" s="19"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="19"/>
       <c r="B178" s="36"/>
       <c r="C178" s="37"/>
@@ -8300,7 +8299,7 @@
       <c r="Y178" s="19"/>
       <c r="Z178" s="19"/>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="19"/>
       <c r="B179" s="36"/>
       <c r="C179" s="37"/>
@@ -8364,16 +8363,16 @@
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="C1" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="41" t="s">
         <v>109</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>110</v>
       </c>
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
@@ -9446,31 +9445,31 @@
   <sheetData>
     <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>119</v>
       </c>
       <c r="J1" s="45"/>
       <c r="K1" s="45"/>
